--- a/FNP_2022_FinCausal/annotation/tmp/nwl/fnp2022-annotation-details.xlsx
+++ b/FNP_2022_FinCausal/annotation/tmp/nwl/fnp2022-annotation-details.xlsx
@@ -14,15 +14,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Annotations!$A$1:$M$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data sets'!$A$1:$K$300</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Fact Alignment'!$A$1:$I$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data sets'!$A$1:$K$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Fact Alignment'!$A$1:$I$48</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="847">
   <si>
     <t>URL</t>
   </si>
@@ -1789,6 +1789,9 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Changes in foreign currency unfavorably impacted net sales by $18 million, or 1%.Operating loss for 2020 decreased to $85 million as compared to $136 million in 2019. </t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1797,7 +1800,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;e2&gt;Changes in foreign currency unfavorably impacted net sales by $18 million, or 1%.Operating loss for 2020 decreased to $85 million as compared to $136 million in 2019.&lt;/e2&gt;</t>
+      <t>&lt;e2&gt;The improvement in operating results is primarily due to the cumulative depreciation and amortization expense adjustment in the prior year, as a result of the Company’s decision to retain the Commercial Business.&lt;/e2&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1807,7 +1810,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> The improvement in operating results is primarily due to the cumulative depreciation and amortization expense adjustment in the prior year, as a result of the Company’s decision to retain the Commercial Business. </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -4773,145 +4776,145 @@
     <t>0001.00173</t>
   </si>
   <si>
-    <t>The cash paid and received from the settlement of interest rate swaps is included in interest expense.Fair Value HedgesAt December 31, 2020, the Company had approximately $100 million notional of interest rate swaps that exchange a fixed rate of interest for variable rate (LIBOR) of interest plus a weighted average spread. These floating rate swaps are designated as fair value hedges against $100 million of principal on the 4.00% senior notes due 2024 for the remaining life of the note. The effective portion of the fair value gains or losses on these swaps is offset by fair value adjustments in the underlying debt.</t>
+    <t>The cash paid and received from the settlement of interest rate swaps is included in interest expense.Fair Value HedgesAt December 31, 2020, the Company had approximately $100 million notional of interest rate swaps that exchange a fixed rate of interest for variable rate (LIBOR) of interest plus a weighted average spread. These floating rate swaps are designated as fair value hedges against $100 million of principal on the 4.00% senior notes due 2024 for the remaining life of the note.</t>
   </si>
   <si>
     <t>0001.00174</t>
   </si>
   <si>
-    <t>On August 15, 2020, a $277 million notional interest rate swap matured concurrently with the maturity of the 4.70% senior notes which were repaid during the third quarter. Cross-Currency ContractsThe Company uses cross-currency swaps to hedge foreign currency risk on certain financing arrangements.</t>
+    <t>The effective portion of the fair value gains or losses on these swaps is offset by fair value adjustments in the underlying debt. On August 15, 2020, a $277 million notional interest rate swap matured concurrently with the maturity of the 4.70% senior notes which were repaid during the third quarter.</t>
   </si>
   <si>
     <t>0001.00175</t>
   </si>
   <si>
-    <t>During the first quarter of 2020, the Company entered into two cross-currency swaps with an aggregate notional amount of $900 million, which were designated as net investment hedges of the Company's foreign currency exposure of its net investment in certain Euro-functional currency subsidiaries with Euro-denominated net assets. With these cross-currency swaps, which mature in January and February 2025, the Company pays a fixed rate of Euro-based interest and receives a fixed rate of U.S. dollar interest.</t>
+    <t>Cross-Currency ContractsThe Company uses cross-currency swaps to hedge foreign currency risk on certain financing arrangements. During the first quarter of 2020, the Company entered into two cross-currency swaps with an aggregate notional amount of $900 million, which were designated as net investment hedges of the Company's foreign currency exposure of its net investment in certain Euro-functional currency subsidiaries with Euro-denominated net assets.</t>
   </si>
   <si>
     <t>0001.00176</t>
   </si>
   <si>
+    <t>With these cross-currency swaps, which mature in January and February 2025, the Company pays a fixed rate of Euro-based interest and receives a fixed rate of U.S. dollar interest.</t>
+  </si>
+  <si>
+    <t>0001.00177</t>
+  </si>
+  <si>
     <t>The Company has elected the spot method for assessing the effectiveness of these contracts.</t>
   </si>
   <si>
-    <t>0001.00177</t>
-  </si>
-  <si>
-    <t>During the year ended December 31, 2020, the Company recognized income of $14 million in interest expense, net, related to the portion of cross-currency swaps excluded from hedge effectiveness testing.</t>
-  </si>
-  <si>
     <t>0001.00178</t>
   </si>
   <si>
-    <t>The Company had no cross-currency swaps used as hedging instruments in 2019.Foreign Currency ContractsThe Company uses forward foreign currency contracts to mitigate the foreign currency exchange rate exposure on the cash flows related to forecasted inventory purchases and sales and have maturity dates through December 2021. The derivatives used to hedge these forecasted transactions that meet the criteria for hedge accounting are accounted for as cash flow hedges.</t>
+    <t>During the year ended December 31, 2020, the Company recognized income of $14 million in interest expense, net, related to the portion of cross-currency swaps excluded from hedge effectiveness testing. The Company had no cross-currency swaps used as hedging instruments in 2019.Foreign Currency ContractsThe Company uses forward foreign currency contracts to mitigate the foreign currency exchange rate exposure on the cash flows related to forecasted inventory purchases and sales and have maturity dates through December 2021.</t>
   </si>
   <si>
     <t>0001.00179</t>
   </si>
   <si>
-    <t>The effective portion of the gains or losses on these derivatives is deferred as a component of accumulated other comprehensive income (loss) (“AOCL”) and is recognized in earnings at the same time that the hedged item affects earnings and is included in the same caption in the statements of operations as the underlying hedged item. At December 31, 2020, the Company had approximately $509 million notional amount outstanding of forward foreign currency contracts that are designated as cash flow hedges of forecasted inventory purchases and sales.The Company also uses foreign currency contracts, primarily forward foreign currency contracts, to mitigate the foreign currency exposure of certain other foreign currency transactions. At December 31, 2020, the Company had approximately $994 million notional amount outstanding of these foreign currency contracts that are not designated as effective hedges for accounting purposes and have maturity dates through December 2021.</t>
+    <t>The derivatives used to hedge these forecasted transactions that meet the criteria for hedge accounting are accounted for as cash flow hedges. The effective portion of the gains or losses on these derivatives is deferred as a component of accumulated other comprehensive income (loss) (“AOCL”) and is recognized in earnings at the same time that the hedged item affects earnings and is included in the same caption in the statements of operations as the underlying hedged item. At December 31, 2020, the Company had approximately $509 million notional amount outstanding of forward foreign currency contracts that are designated as cash flow hedges of forecasted inventory purchases and sales.The Company also uses foreign currency contracts, primarily forward foreign currency contracts, to mitigate the foreign currency exposure of certain other foreign currency transactions.</t>
   </si>
   <si>
     <t>0001.00180</t>
   </si>
   <si>
+    <t>At December 31, 2020, the Company had approximately $994 million notional amount outstanding of these foreign currency contracts that are not designated as effective hedges for accounting purposes and have maturity dates through December 2021.</t>
+  </si>
+  <si>
+    <t>0001.00181</t>
+  </si>
+  <si>
     <t>Fair market value gains or losses are included in the results of operations and are classified in other (income) expense, net.Commodity ContractsTo a lesser extent, the Company also enters into commodity-based derivatives in order to mitigate the risk that the rising price of these commodities could have on the cost of certain of the Company’s raw materials.</t>
   </si>
   <si>
-    <t>0001.00181</t>
+    <t>0001.00182</t>
   </si>
   <si>
     <t>These commodity-based derivatives provide the Company with cost certainty.</t>
   </si>
   <si>
-    <t>0001.00182</t>
+    <t>0001.00183</t>
   </si>
   <si>
     <t>At December 31, 2020, the Company had no notional amount outstanding of commodity-based derivatives that are designated as effective hedges for accounting purposes.</t>
   </si>
   <si>
-    <t>0001.00183</t>
+    <t>0001.00184</t>
   </si>
   <si>
     <t>Certain other items, such as purchase commitments and other executory contracts, are not recognized as liabilities in the Company’s consolidated financial statements but are required to be disclosed.</t>
   </si>
   <si>
-    <t>0001.00184</t>
+    <t>0001.00185</t>
   </si>
   <si>
     <t>Examples of items not recognized as liabilities in the Company’s consolidated financial statements are commitments to purchase raw materials or inventory that has not yet been received at December 31, 2020, and other non-cancelable obligations including capital assets and other licensing services.The following table summarizes the effect, that material contractual obligations and commitments are expected to have on the Company’s cash flow in the indicated period at December 31, 2020.</t>
   </si>
   <si>
-    <t>0001.00185</t>
+    <t>0001.00186</t>
   </si>
   <si>
     <t>For further information relating to these obligations, see Footnote 9 of the Notes to Consolidated Financial Statements.</t>
   </si>
   <si>
-    <t>0001.00186</t>
+    <t>0001.00187</t>
   </si>
   <si>
     <t>(2)Amounts represent estimated interest payable on borrowings outstanding at December 31, 2020, excluding the impact of fixed to floating rate interest rate swaps.</t>
   </si>
   <si>
-    <t>0001.00187</t>
+    <t>0001.00188</t>
   </si>
   <si>
     <t>Interest on floating-rate debt was estimated using the rate in effect at December 31, 2020.</t>
   </si>
   <si>
-    <t>0001.00188</t>
-  </si>
-  <si>
-    <t>For further information, see Footnote 9 of the Notes to Consolidated Financial Statements.</t>
-  </si>
-  <si>
     <t>0001.00189</t>
   </si>
   <si>
-    <t>(3)Amounts represent lease liabilities on operating and financing leases at December 31, 2020. See Footnote 13 of the Notes to Consolidated Financial Statements.</t>
+    <t>For further information, see Footnote 9 of the Notes to Consolidated Financial Statements. (3)Amounts represent lease liabilities on operating and financing leases at December 31, 2020.</t>
   </si>
   <si>
     <t>0001.00190</t>
   </si>
   <si>
+    <t>See Footnote 13 of the Notes to Consolidated Financial Statements.</t>
+  </si>
+  <si>
+    <t>0001.00191</t>
+  </si>
+  <si>
     <t>(4)Primarily consists of purchase commitments with suppliers entered into at December 31, 2020, for the purchase of materials, packaging and other components and services.</t>
   </si>
   <si>
-    <t>0001.00191</t>
+    <t>0001.00192</t>
   </si>
   <si>
     <t>These purchase commitment amounts represent only those items which are based on agreements that are legally enforceable and that specify all significant terms including minimum quantity, price and term and do not represent total anticipated purchases.</t>
   </si>
   <si>
-    <t>0001.00192</t>
+    <t>0001.00193</t>
   </si>
   <si>
     <t>(5)Represents the future cash payments related to 2017 Tax Reform, for the one-time provisional transition tax on the Company’s previously untaxed foreign earnings.</t>
   </si>
   <si>
-    <t>0001.00193</t>
+    <t>0001.00194</t>
   </si>
   <si>
     <t>(6)Total does not include contractual obligations reported on the December 31, 2020 balance sheet as current liabilities, except for current portion of long-term debt, short-term debt and accrued interest.The Company also has liabilities for uncertain tax positions and unrecognized tax benefits.</t>
   </si>
   <si>
-    <t>0001.00194</t>
+    <t>0001.00195</t>
   </si>
   <si>
     <t>The Company is under audit from time-to-time by the IRS and other taxing authorities, and it is possible that the amount of the liability for uncertain tax positions and unrecognized tax benefits could change in the coming year.</t>
   </si>
   <si>
-    <t>0001.00195</t>
-  </si>
-  <si>
-    <t>While it is possible that one or more of these examinations may be resolved in the next year, the Company is not able to reasonably estimate the timing or the amount by which the liability will be settled over time therefore, the $452 million in unrecognized tax benefits at December 31, 2020, is excluded from the preceding table.</t>
-  </si>
-  <si>
     <t>0001.00196</t>
   </si>
   <si>
-    <t>See Footnote 12 of the Notes to Consolidated Financial Statements for additional information.42Additionally, the Company has obligations with respect to its pension and postretirement benefit plans, which are excluded from the preceding table. The timing and amounts of the funding requirements are uncertain because they are dependent on interest rates and actual returns on plan assets, among other factors.</t>
+    <t>While it is possible that one or more of these examinations may be resolved in the next year, the Company is not able to reasonably estimate the timing or the amount by which the liability will be settled over time therefore, the $452 million in unrecognized tax benefits at December 31, 2020, is excluded from the preceding table. See Footnote 12 of the Notes to Consolidated Financial Statements for additional information.42Additionally, the Company has obligations with respect to its pension and postretirement benefit plans, which are excluded from the preceding table. The timing and amounts of the funding requirements are uncertain because they are dependent on interest rates and actual returns on plan assets, among other factors.</t>
   </si>
   <si>
     <t>0001.00197</t>
@@ -5127,108 +5130,114 @@
     <t>0001.00217</t>
   </si>
   <si>
-    <t>The Company’s operations are comprised of eight reporting units, within its five primary operating segments.During the first quarter of 2020, the Company concluded that an impairment triggering event had occurred for all of its reporting units as the Company has experienced significant COVID-19 related disruption to its business in three primary areas: supply chain, as certain manufacturing and distribution facilities were temporarily closed in line with government guidelines the temporary closure of secondary customer retail stores as well as the Company's Yankee Candle retail stores in North America and changes in consumer demand patterns to certain focused categories. The Company used a quantitative approach, which involves comparing the fair value of each of the reporting units to the carrying value of those reporting units. If the carrying value of a reporting unit exceeds its fair value, an impairment loss would be calculated as the differences between these amounts, limited to the amount of reporting unit goodwill allocated to the reporting unit.The quantitative goodwill impairment testing requires significant use of judgment and assumptions, such as the identification of reporting units the assignment of assets and liabilities to reporting units and the estimation of future cash flows, business growth rates, terminal values, discount rates and total enterprise value.</t>
+    <t>The Company’s operations are comprised of eight reporting units, within its five primary operating segments.During the first quarter of 2020, the Company concluded that an impairment triggering event had occurred for all of its reporting units as the Company has experienced significant COVID-19 related disruption to its business in three primary areas: supply chain, as certain manufacturing and distribution facilities were temporarily closed in line with government guidelines the temporary closure of secondary customer retail stores as well as the Company's Yankee Candle retail stores in North America and changes in consumer demand patterns to certain focused categories. The Company used a quantitative approach, which involves comparing the fair value of each of the reporting units to the carrying value of those reporting units.</t>
   </si>
   <si>
     <t>0001.00218</t>
   </si>
   <si>
+    <t>If the carrying value of a reporting unit exceeds its fair value, an impairment loss would be calculated as the differences between these amounts, limited to the amount of reporting unit goodwill allocated to the reporting unit.The quantitative goodwill impairment testing requires significant use of judgment and assumptions, such as the identification of reporting units the assignment of assets and liabilities to reporting units and the estimation of future cash flows, business growth rates, terminal values, discount rates and total enterprise value.</t>
+  </si>
+  <si>
+    <t>0001.00219</t>
+  </si>
+  <si>
     <t>The income approach used is the discounted cash flow methodology and is based on five-year cash flow projections.</t>
   </si>
   <si>
-    <t>0001.00219</t>
-  </si>
-  <si>
-    <t>The cash flows projected are analyzed on a “debt-free” basis (before cash payments to equity and interest-bearing debt investors) in order to develop an enterprise value from operations for the reporting unit.</t>
-  </si>
-  <si>
     <t>0001.00220</t>
   </si>
   <si>
-    <t>A provision is made, based on these projections, for the value of the reporting unit at the end of the forecast period, or terminal value. The present value of the finite-period cash flows and the terminal value are determined using a selected discount rate.</t>
+    <t>The cash flows projected are analyzed on a “debt-free” basis (before cash payments to equity and interest-bearing debt investors) in order to develop an enterprise value from operations for the reporting unit. A provision is made, based on these projections, for the value of the reporting unit at the end of the forecast period, or terminal value.</t>
   </si>
   <si>
     <t>0001.00221</t>
   </si>
   <si>
-    <t>The Company estimated the fair values of its reporting units based on discounted cash flow methodology reflecting its latest projections which included, among other things, the impact of tariffs on Chinese imports, the current expectations as to the impact of COVID-19 on its operations, as well as other inflation at the time the Company performed its impairment testing.As a result of the impairment testing performed in connection with the COVID-19 global pandemic triggering event, the Company determined that its goodwill associated with its Appliances and Cookware segment was impaired. During first quarter of 2020, the Company recorded a non-cash charge of $212 million to reflect the impairment of its goodwill as its carrying value exceeded its fair value.</t>
+    <t>The present value of the finite-period cash flows and the terminal value are determined using a selected discount rate. The Company estimated the fair values of its reporting units based on discounted cash flow methodology reflecting its latest projections which included, among other things, the impact of tariffs on Chinese imports, the current expectations as to the impact of COVID-19 on its operations, as well as other inflation at the time the Company performed its impairment testing.As a result of the impairment testing performed in connection with the COVID-19 global pandemic triggering event, the Company determined that its goodwill associated with its Appliances and Cookware segment was impaired.</t>
   </si>
   <si>
     <t>0001.00222</t>
   </si>
   <si>
+    <t>During first quarter of 2020, the Company recorded a non-cash charge of $212 million to reflect the impairment of its goodwill as its carrying value exceeded its fair value.</t>
+  </si>
+  <si>
+    <t>0001.00223</t>
+  </si>
+  <si>
     <t>There was no goodwill impairment recorded in conjunction with the Company’s annual impairment testing in the fourth quarter, and, as of December 31, 2020, there were no reporting units with fair values within 10% of the associated carrying values.</t>
   </si>
   <si>
-    <t>0001.00223</t>
+    <t>0001.00224</t>
   </si>
   <si>
     <t>Additionally, a hypothetical 10% reduction in forecasted earnings before interest, taxes and amortization used in the discounted cash flows to estimate the fair value of each reporting unit would not have resulted in a goodwill impairment charge.See Footnotes 1 and 7 of the Notes to Consolidated Financial Statements for further information.Indefinite-lived intangiblesThe testing of indefinite-lived intangibles (primarily trademarks and tradenames) under established guidelines for impairment also requires significant use of judgment and assumptions (such as cash flow projections, royalty rates, terminal values and discount rates).</t>
   </si>
   <si>
-    <t>0001.00224</t>
+    <t>0001.00225</t>
   </si>
   <si>
     <t>An indefinite-lived intangible asset is impaired by the amount its carrying value exceeds its estimated fair value.</t>
   </si>
   <si>
-    <t>0001.00225</t>
+    <t>0001.00226</t>
   </si>
   <si>
     <t>For impairment testing purposes, the fair value of indefinite-lived intangibles is determined using either the relief from royalty method or the excess earnings method.</t>
   </si>
   <si>
-    <t>0001.00226</t>
+    <t>0001.00227</t>
   </si>
   <si>
     <t>The relief from royalty method estimates the value of a tradename by discounting the hypothetical avoided royalty payments to their present value over the economic life of the asset.</t>
   </si>
   <si>
-    <t>0001.00227</t>
+    <t>0001.00228</t>
   </si>
   <si>
     <t>The excess earnings method estimates the value of the intangible asset by quantifying the residual (or excess) cash flows generated by the asset and discounts those cash flows to the present.</t>
   </si>
   <si>
-    <t>0001.00228</t>
-  </si>
-  <si>
-    <t>The excess earnings methodology requires the application of contributory asset charges.</t>
-  </si>
-  <si>
     <t>0001.00229</t>
   </si>
   <si>
-    <t>Contributory asset charges typically include assumed payments for the use of working capital, tangible assets and other intangible assets. Changes in forecasted operations and other assumptions could materially affect the estimated fair values. Changes in business conditions could potentially require adjustments to these asset valuations.</t>
+    <t>The excess earnings methodology requires the application of contributory asset charges. Contributory asset charges typically include assumed payments for the use of working capital, tangible assets and other intangible assets. Changes in forecasted operations and other assumptions could materially affect the estimated fair values.</t>
   </si>
   <si>
     <t>0001.00230</t>
   </si>
   <si>
+    <t>Changes in business conditions could potentially require adjustments to these asset valuations.</t>
+  </si>
+  <si>
+    <t>0001.00231</t>
+  </si>
+  <si>
     <t>As a result of the impairment testing performed in connection with the COVID-19 pandemic triggering event during the first quarter of 2020, the Company determined that certain of its indefinite-lived intangible assets in the Appliances and Cookware, Commercial Solutions, Home Solutions, Learning and Development and Outdoor and Recreation segments were impaired.</t>
   </si>
   <si>
-    <t>0001.00231</t>
+    <t>0001.00232</t>
   </si>
   <si>
     <t>During the first quarter of 2020, the Company recorded impairment charges of $1.3 billion to reflect impairment of these indefinite-lived tradenames because their carrying values exceeded their fair values.During the third quarter of 2020, the Company concluded that a triggering event had occurred for an indefinite-lived intangible asset in the Learning and Development segment as a result of a product line divestiture.</t>
   </si>
   <si>
-    <t>0001.00232</t>
-  </si>
-  <si>
-    <t>Pursuant to the authoritative literature, the Company performed an impairment test and determined that the indefinite-lived intangible asset was impaired as its carrying value 44exceeded its fair value.</t>
-  </si>
-  <si>
     <t>0001.00233</t>
   </si>
   <si>
-    <t>During the third quarter of 2020, the Company recorded a non-cash charge of $2 million to reflect the impairment of this indefinite-lived intangible asset. See Footnotes 1 and 7 of the Notes to Consolidated Financial Statements for further information.During the fourth quarter of 2020, in conjunction with its annual impairment testing, the Company recorded a non-cash impairment charge of $20 million associated with a tradename in the Learning and Development segment, as its carrying value exceeded its fair value.</t>
+    <t>Pursuant to the authoritative literature, the Company performed an impairment test and determined that the indefinite-lived intangible asset was impaired as its carrying value 44exceeded its fair value. During the third quarter of 2020, the Company recorded a non-cash charge of $2 million to reflect the impairment of this indefinite-lived intangible asset.</t>
   </si>
   <si>
     <t>0001.00234</t>
   </si>
   <si>
+    <t>See Footnotes 1 and 7 of the Notes to Consolidated Financial Statements for further information.During the fourth quarter of 2020, in conjunction with its annual impairment testing, the Company recorded a non-cash impairment charge of $20 million associated with a tradename in the Learning and Development segment, as its carrying value exceeded its fair value.</t>
+  </si>
+  <si>
+    <t>0001.00235</t>
+  </si>
+  <si>
     <t>The impairment reflected a downward revision of forecasted results due to the impact of the delayed and limited re-opening of schools and offices as a result of the COVID-19 global pandemic, as well as the continued deterioration in sales for slime-related adhesive products.</t>
   </si>
   <si>
@@ -5316,361 +5325,370 @@
     <t>The impairment reflected a downward revision of forecasted results</t>
   </si>
   <si>
-    <t>0001.00235</t>
+    <t>0001.00236</t>
   </si>
   <si>
     <t>An increase of 100 basis points in the discount rate used in the discounted cash flows to estimate fair values of this tradename would have resulted in an increase to the impairment charge of approximately $14 million.</t>
   </si>
   <si>
-    <t>0001.00236</t>
+    <t>0001.00237</t>
   </si>
   <si>
     <t>The remaining carrying value of this tradename is approximately $135 million.</t>
   </si>
   <si>
-    <t>0001.00237</t>
+    <t>0001.00238</t>
   </si>
   <si>
     <t>The remaining tradenames within the Company's Learning and Development segment with no impairment during the fourth quarter of 2020 impairment test had carrying values of $387 million, with $310 million of those with fair values in excess of 10% of carrying values, respectively.</t>
   </si>
   <si>
-    <t>0001.00238</t>
+    <t>0001.00239</t>
   </si>
   <si>
     <t>An increase of 100 basis points in the discount rate used in the discounted cash flows to estimate fair values of the remaining Learning and Development tradenames would have resulted in an impairment charge of approximately $5 million.</t>
   </si>
   <si>
-    <t>0001.00239</t>
+    <t>0001.00240</t>
   </si>
   <si>
     <t>There were no impairments of the Company’s tradenames within the Appliances and Cookware and Outdoor and Recreation segments during the fourth quarter of 2020 impairment test.</t>
   </si>
   <si>
-    <t>0001.00240</t>
-  </si>
-  <si>
-    <t>The remaining carrying value of tradenames within these segments were approximately $58 million and $119 million, respectively, with $54 million and $113 million of those tradenames with fair values in excess of 10% of the carrying values, respectively.</t>
-  </si>
-  <si>
     <t>0001.00241</t>
   </si>
   <si>
-    <t>An increase of 100 basis points in the discount rate used in the discounted cash flows to estimate fair values of the Appliances and Cookware tradenames would not have resulted in an impairment charge. An increase of 100 basis points in the discount rate used in the discounted cash flows to estimate fair values of the Outdoor and Recreation tradenames would have resulted in an impairment charge of approximately $1 million.There were no impairments of the Company’s tradenames within the Commercial Solutions and Home Solutions segments during the fourth quarter of 2020 impairment test.</t>
+    <t>The remaining carrying value of tradenames within these segments were approximately $58 million and $119 million, respectively, with $54 million and $113 million of those tradenames with fair values in excess of 10% of the carrying values, respectively. An increase of 100 basis points in the discount rate used in the discounted cash flows to estimate fair values of the Appliances and Cookware tradenames would not have resulted in an impairment charge.</t>
   </si>
   <si>
     <t>0001.00242</t>
   </si>
   <si>
-    <t>The remaining carrying value of tradenames within these segments were approximately $$576 million and $1.0 billion, respectively, and all tradenames have fair values in excess of 10% of the carrying values.</t>
+    <t>An increase of 100 basis points in the discount rate used in the discounted cash flows to estimate fair values of the Outdoor and Recreation tradenames would have resulted in an impairment charge of approximately $1 million.There were no impairments of the Company’s tradenames within the Commercial Solutions and Home Solutions segments during the fourth quarter of 2020 impairment test.</t>
   </si>
   <si>
     <t>0001.00243</t>
   </si>
   <si>
-    <t>An increase of 100 basis points in the discount rate used in the discounted cash flows to estimate fair values of the Commercial Solutions tradenames would have resulted in an impairment charge of approximately $6 million. An increase of 100 basis points in the discount rate used in the discounted cash flows to estimate fair values of the Home Solutions tradenames would not have resulted in an impairment charge.The Company believes the circumstances and global disruption caused by COVID-19 may continue to affect its businesses, future operating results, cash flows and financial condition and that the scope and duration of the pandemic is highly uncertain.</t>
+    <t>The remaining carrying value of tradenames within these segments were approximately $$576 million and $1.0 billion, respectively, and all tradenames have fair values in excess of 10% of the carrying values. An increase of 100 basis points in the discount rate used in the discounted cash flows to estimate fair values of the Commercial Solutions tradenames would have resulted in an impairment charge of approximately $6 million.</t>
   </si>
   <si>
     <t>0001.00244</t>
   </si>
   <si>
+    <t>An increase of 100 basis points in the discount rate used in the discounted cash flows to estimate fair values of the Home Solutions tradenames would not have resulted in an impairment charge.The Company believes the circumstances and global disruption caused by COVID-19 may continue to affect its businesses, future operating results, cash flows and financial condition and that the scope and duration of the pandemic is highly uncertain.</t>
+  </si>
+  <si>
+    <t>0001.00245</t>
+  </si>
+  <si>
     <t>In addition, some of the other inherent estimates and assumptions used in determining fair value of the reporting units are outside the control of management, including interest rates, cost of capital, tax rates, industry growth, credit ratings, foreign exchange rates, labor inflation and tariffs.</t>
   </si>
   <si>
-    <t>0001.00245</t>
-  </si>
-  <si>
-    <t>Given the uncertainty of these factors, as well as the inherent difficulty in predicting the severity and duration of the COVID-19 global pandemic and associated recovery and the uncertainties regarding the potential financial impact on the Company's business and the overall economy, there can be no assurance that the Company's estimates and assumptions made for purposes of the goodwill and indefinite-lived intangible asset impairment testing performed during the fourth quarter of 2020 will prove to be accurate predictions of the future.The Company believes it has made reasonable estimates and assumptions to calculate the fair values of the reporting units and other indefinite-lived intangible assets which were based on facts and circumstances known at this time.</t>
-  </si>
-  <si>
     <t>0001.00246</t>
   </si>
   <si>
-    <t>It is, however, possible that new events may occur or actual events may result in forecasted cash flows, revenue and earnings that differ from those that formed the basis of the Company’s estimates and assumptions. Actual results could be materially different from the Company’s estimates and assumptions used to calculate fair value for each of the Company’s reporting units if the global pandemic caused by COVID-19 continues to persist for an extended period of time. If such a scenario were to occur, the Company may be required to recognize material impairments to goodwill and/or indefinite-lived intangible assets.</t>
+    <t>Given the uncertainty of these factors, as well as the inherent difficulty in predicting the severity and duration of the COVID-19 global pandemic and associated recovery and the uncertainties regarding the potential financial impact on the Company's business and the overall economy, there can be no assurance that the Company's estimates and assumptions made for purposes of the goodwill and indefinite-lived intangible asset impairment testing performed during the fourth quarter of 2020 will prove to be accurate predictions of the future.The Company believes it has made reasonable estimates and assumptions to calculate the fair values of the reporting units and other indefinite-lived intangible assets which were based on facts and circumstances known at this time. It is, however, possible that new events may occur or actual events may result in forecasted cash flows, revenue and earnings that differ from those that formed the basis of the Company’s estimates and assumptions. Actual results could be materially different from the Company’s estimates and assumptions used to calculate fair value for each of the Company’s reporting units if the global pandemic caused by COVID-19 continues to persist for an extended period of time.</t>
   </si>
   <si>
     <t>0001.00247</t>
   </si>
   <si>
-    <t>The Company will continue to monitor its reporting units for any triggering events or other signs of impairment. The Company may be required to perform additional impairment testing based on further deterioration of the global economic environment, continued disruptions to the Company’s business, further declines in operating results of the Company’s reporting units and/or tradenames, further sustained deterioration of the Company’s market capitalization, and other factors, which could result in impairment charges in the future.</t>
+    <t>If such a scenario were to occur, the Company may be required to recognize material impairments to goodwill and/or indefinite-lived intangible assets. The Company will continue to monitor its reporting units for any triggering events or other signs of impairment.</t>
   </si>
   <si>
     <t>0001.00248</t>
   </si>
   <si>
-    <t>Although management cannot predict when improvements in macroeconomic conditions will occur, if consumer confidence and consumer spending decline significantly in the future or if commercial and industrial economic activity experiences a sustained deterioration from current levels, it is reasonably likely the Company will be required to record impairment charges in the future.45At December 31, 2020, there were four indefinite-lived tradenames with fair values less than 10% of their associated carrying values within the Appliances and Cookware, Learning and Development, and Outdoor and Recreation segments. A hypothetical 10% reduction in the forecasted debt-free cash flows used in the excess earnings method to determine the fair value of certain indefinite-lived intangibles of the Company would not have resulted an impairment. A hypothetical 10% reduction in forecasted revenue used in the relief from royalty method to determine the fair value of certain indefinite-lived intangibles would have resulted in incremental impairment charges in the Company's Learning and Development and Outdoor and Recreation segments of $35 million and $1 million, respectively.</t>
+    <t>The Company may be required to perform additional impairment testing based on further deterioration of the global economic environment, continued disruptions to the Company’s business, further declines in operating results of the Company’s reporting units and/or tradenames, further sustained deterioration of the Company’s market capitalization, and other factors, which could result in impairment charges in the future. Although management cannot predict when improvements in macroeconomic conditions will occur, if consumer confidence and consumer spending decline significantly in the future or if commercial and industrial economic activity experiences a sustained deterioration from current levels, it is reasonably likely the Company will be required to record impairment charges in the future.45At December 31, 2020, there were four indefinite-lived tradenames with fair values less than 10% of their associated carrying values within the Appliances and Cookware, Learning and Development, and Outdoor and Recreation segments. A hypothetical 10% reduction in the forecasted debt-free cash flows used in the excess earnings method to determine the fair value of certain indefinite-lived intangibles of the Company would not have resulted an impairment.</t>
   </si>
   <si>
     <t>0001.00249</t>
   </si>
   <si>
-    <t>See Footnote 7 of the Notes to Consolidated Financial Statements for further information.Other Long-Lived AssetsThe Company continuously evaluates whether impairment indicators related to its property, plant and equipment, operating leases and other long-lived assets are present. These impairment indicators may include a significant decrease in the market price of a long-lived asset or asset group, early termination of an operating lease, a significant adverse change in the extent or manner in which a long-lived asset or asset group is being used or in its physical condition, or a current-period operating or cash flow loss combined with a history of operating or cash flow losses or a forecast that demonstrates continuing losses associated with the use of a long-lived asset or asset group. If impairment indicators are present, the Company estimates the future cash flows for the asset or group of assets.</t>
+    <t>A hypothetical 10% reduction in forecasted revenue used in the relief from royalty method to determine the fair value of certain indefinite-lived intangibles would have resulted in incremental impairment charges in the Company's Learning and Development and Outdoor and Recreation segments of $35 million and $1 million, respectively. See Footnote 7 of the Notes to Consolidated Financial Statements for further information.Other Long-Lived AssetsThe Company continuously evaluates whether impairment indicators related to its property, plant and equipment, operating leases and other long-lived assets are present.</t>
   </si>
   <si>
     <t>0001.00250</t>
   </si>
   <si>
-    <t>The sum of the undiscounted future cash flows attributable to the asset or group of assets is compared to their carrying amount. The cash flows are estimated utilizing various assumptions regarding future sales and expenses, working capital and proceeds from asset disposals on a basis consistent with the Company’s forecasts.</t>
+    <t>These impairment indicators may include a significant decrease in the market price of a long-lived asset or asset group, early termination of an operating lease, a significant adverse change in the extent or manner in which a long-lived asset or asset group is being used or in its physical condition, or a current-period operating or cash flow loss combined with a history of operating or cash flow losses or a forecast that demonstrates continuing losses associated with the use of a long-lived asset or asset group. If impairment indicators are present, the Company estimates the future cash flows for the asset or group of assets.</t>
   </si>
   <si>
     <t>0001.00251</t>
   </si>
   <si>
+    <t>The sum of the undiscounted future cash flows attributable to the asset or group of assets is compared to their carrying amount.</t>
+  </si>
+  <si>
+    <t>0001.00252</t>
+  </si>
+  <si>
+    <t>The cash flows are estimated utilizing various assumptions regarding future sales and expenses, working capital and proceeds from asset disposals on a basis consistent with the Company’s forecasts.</t>
+  </si>
+  <si>
+    <t>0001.00253</t>
+  </si>
+  <si>
     <t>If the carrying amount exceeds the sum of the undiscounted future cash flows, the Company discounts the future cash flows using a discount rate required for a similar investment of like risk and records an impairment charge as the difference between the fair value and the carrying value of the asset group.</t>
   </si>
   <si>
-    <t>0001.00252</t>
+    <t>0001.00254</t>
   </si>
   <si>
     <t>The Company performs its testing of the asset group at the reporting unit level, as this is the lowest level for which identifiable cash flows are available, with the exception of the Yankee Candle business, where testing is performed at the retail store level.</t>
   </si>
   <si>
-    <t>0001.00253</t>
+    <t>0001.00255</t>
   </si>
   <si>
     <t>See Footnotes 6, 7, and 13 of the Notes to Consolidated Financial Statements for further information.Income TaxesThe Company accounts for deferred income taxes using the asset and liability approach.</t>
   </si>
   <si>
-    <t>0001.00254</t>
+    <t>0001.00256</t>
   </si>
   <si>
     <t>Under this approach, deferred income taxes are recognized based on the tax effects of temporary differences between the financial statement and tax bases of assets and liabilities, as measured by current enacted tax rates.</t>
   </si>
   <si>
-    <t>0001.00255</t>
-  </si>
-  <si>
-    <t>Valuation allowances are recorded to reduce the deferred tax assets to an amount that will more likely than not be realized.</t>
-  </si>
-  <si>
-    <t>0001.00256</t>
-  </si>
-  <si>
-    <t>The Company’s income tax provisions are based on calculations and assumptions that are subject to examination by various worldwide tax authorities.</t>
-  </si>
-  <si>
     <t>0001.00257</t>
   </si>
   <si>
-    <t>Although the Company believes that the positions taken on previously filed tax returns are reasonable, it has established tax, interest and penalty reserves in recognition that various taxing authorities may challenge the positions taken, which could result in additional liabilities for taxes, interest and penalties. The Company regularly reviews its deferred tax assets for recoverability considering historical profitability, projected future taxable income, the expected timing of the reversals of existing temporary differences and tax planning strategies.For uncertain tax positions, the Company applies the provisions of relevant authoritative guidance, which requires application of a “more likely than not” threshold to the recognition and derecognition of tax positions. The Company’s ongoing assessments of the more likely than not outcomes of tax authority examinations and related tax positions require significant judgment and can increase or decrease the Company’s effective tax rate, as well as impact operating results.The Company’s provision for income taxes is subject to volatility and could be favorably or adversely affected by earnings being higher or lower in countries that have lower tax rates and higher or lower in countries that have higher tax rates by changes in the valuation of deferred tax assets and liabilities by expiration of or lapses in tax-related legislation by expiration of or lapses in tax incentives by tax effects of nondeductible compensation by changes in accounting principles by liquidity needs driving repatriations of non-U.S. cash to the U.S. or by changes in tax laws and regulations, including possible U.S. changes to the taxation of earnings of foreign subsidiaries, the deductibility of expenses attributable to foreign income, or the foreign tax credit rules.The Company’s effective tax rate differs from the statutory rate, primarily due to the tax impact of state taxes, foreign tax rates, tax credits, the domestic manufacturing deduction, tax audit settlements and valuation allowance adjustments.</t>
+    <t>Valuation allowances are recorded to reduce the deferred tax assets to an amount that will more likely than not be realized. The Company’s income tax provisions are based on calculations and assumptions that are subject to examination by various worldwide tax authorities. Although the Company believes that the positions taken on previously filed tax returns are reasonable, it has established tax, interest and penalty reserves in recognition that various taxing authorities may challenge the positions taken, which could result in additional liabilities for taxes, interest and penalties.</t>
   </si>
   <si>
     <t>0001.00258</t>
   </si>
   <si>
-    <t>Significant judgment is required in evaluating uncertain tax positions, determining valuation allowances recorded against deferred tax assets, and ultimately, the income tax provision.It is difficult to predict when resolution of income tax matters will occur and when recognition of certain income tax assets and liabilities is appropriate, and the Company’s income tax expense in the future may continue to differ from the statutory rate because of the effects of similar items.</t>
+    <t>The Company regularly reviews its deferred tax assets for recoverability considering historical profitability, projected future taxable income, the expected timing of the reversals of existing temporary differences and tax planning strategies.For uncertain tax positions, the Company applies the provisions of relevant authoritative guidance, which requires application of a “more likely than not” threshold to the recognition and derecognition of tax positions.</t>
   </si>
   <si>
     <t>0001.00259</t>
   </si>
   <si>
-    <t>For example, if items are favorably resolved or management determines a deferred tax asset is realizable that was previously reserved, the Company will recognize period tax benefits. Conversely, to the extent tax matters are 46unfavorably resolved or management determines a valuation allowance is necessary for a tax asset that was not previously reserved, the Company will recognize incremental period tax expense.</t>
+    <t>The Company’s ongoing assessments of the more likely than not outcomes of tax authority examinations and related tax positions require significant judgment and can increase or decrease the Company’s effective tax rate, as well as impact operating results.The Company’s provision for income taxes is subject to volatility and could be favorably or adversely affected by earnings being higher or lower in countries that have lower tax rates and higher or lower in countries that have higher tax rates by changes in the valuation of deferred tax assets and liabilities by expiration of or lapses in tax-related legislation by expiration of or lapses in tax incentives by tax effects of nondeductible compensation by changes in accounting principles by liquidity needs driving repatriations of non-U.S. cash to the U.S. or by changes in tax laws and regulations, including possible U.S. changes to the taxation of earnings of foreign subsidiaries, the deductibility of expenses attributable to foreign income, or the foreign tax credit rules.The Company’s effective tax rate differs from the statutory rate, primarily due to the tax impact of state taxes, foreign tax rates, tax credits, the domestic manufacturing deduction, tax audit settlements and valuation allowance adjustments. Significant judgment is required in evaluating uncertain tax positions, determining valuation allowances recorded against deferred tax assets, and ultimately, the income tax provision.It is difficult to predict when resolution of income tax matters will occur and when recognition of certain income tax assets and liabilities is appropriate, and the Company’s income tax expense in the future may continue to differ from the statutory rate because of the effects of similar items.</t>
   </si>
   <si>
     <t>0001.00260</t>
   </si>
   <si>
-    <t>These matters are expected to contribute to the tax rate differing from the statutory rate and continued volatility in the Company’s effective tax rate.</t>
+    <t>For example, if items are favorably resolved or management determines a deferred tax asset is realizable that was previously reserved, the Company will recognize period tax benefits.</t>
   </si>
   <si>
     <t>0001.00261</t>
   </si>
   <si>
-    <t>See Footnote 12 of the Notes to Consolidated Financial Statements for further information.Pensions and Postretirement BenefitsThe Company records annual amounts relating to its pension and postretirement plans based on calculations, which include various actuarial assumptions, including discount rates, assumed rates of return, compensation increases, turnover rates and health care cost trend rates.</t>
+    <t>Conversely, to the extent tax matters are 46unfavorably resolved or management determines a valuation allowance is necessary for a tax asset that was not previously reserved, the Company will recognize incremental period tax expense.</t>
   </si>
   <si>
     <t>0001.00262</t>
   </si>
   <si>
-    <t>The Company reviews its actuarial assumptions on an annual basis and makes modifications to the assumptions based on current rates and trends when it is deemed appropriate to do so. The effect of modifications is generally deferred and amortized over future periods. The Company believes that the assumptions utilized in recording its obligations under its plans are reasonable based on its experience, market conditions and the input from its actuaries and investment advisors.</t>
+    <t>These matters are expected to contribute to the tax rate differing from the statutory rate and continued volatility in the Company’s effective tax rate. See Footnote 12 of the Notes to Consolidated Financial Statements for further information.Pensions and Postretirement BenefitsThe Company records annual amounts relating to its pension and postretirement plans based on calculations, which include various actuarial assumptions, including discount rates, assumed rates of return, compensation increases, turnover rates and health care cost trend rates. The Company reviews its actuarial assumptions on an annual basis and makes modifications to the assumptions based on current rates and trends when it is deemed appropriate to do so.</t>
   </si>
   <si>
     <t>0001.00263</t>
   </si>
   <si>
-    <t>The pension and postretirement obligations are measured at December 31, 2020 and 2019.The Company employs a total return investment approach for its pension and postretirement benefit plans whereby a mix of equities and fixed income investments are used to maximize the long-term return of pension plan assets. The intent of this strategy is to minimize plan expenses by outperforming plan liabilities over the long run. Risk tolerance is established through careful consideration of plan liabilities, plan funded status, and corporate financial condition.</t>
+    <t>The effect of modifications is generally deferred and amortized over future periods. The Company believes that the assumptions utilized in recording its obligations under its plans are reasonable based on its experience, market conditions and the input from its actuaries and investment advisors. The pension and postretirement obligations are measured at December 31, 2020 and 2019.The Company employs a total return investment approach for its pension and postretirement benefit plans whereby a mix of equities and fixed income investments are used to maximize the long-term return of pension plan assets.</t>
   </si>
   <si>
     <t>0001.00264</t>
   </si>
   <si>
+    <t>The intent of this strategy is to minimize plan expenses by outperforming plan liabilities over the long run.</t>
+  </si>
+  <si>
+    <t>0001.00265</t>
+  </si>
+  <si>
+    <t>Risk tolerance is established through careful consideration of plan liabilities, plan funded status, and corporate financial condition.</t>
+  </si>
+  <si>
+    <t>0001.00266</t>
+  </si>
+  <si>
     <t>The investment portfolios contain a diversified blend of equity and fixed-income investments.</t>
   </si>
   <si>
-    <t>0001.00265</t>
+    <t>0001.00267</t>
   </si>
   <si>
     <t>Furthermore, equity investments are diversified across geography and market capitalization through investments in U.S. large-capitalization stocks, U.S. small-capitalization stocks and international securities.</t>
   </si>
   <si>
-    <t>0001.00266</t>
-  </si>
-  <si>
-    <t>Investment risk is measured and monitored on an ongoing basis through annual liability measurements, periodic asset/liability studies and quarterly investment portfolio reviews.The expected long-term rate of return for plan assets is based upon many factors including expected asset allocations, historical asset returns, current and expected future market conditions, risk and active management premiums.</t>
-  </si>
-  <si>
-    <t>0001.00267</t>
-  </si>
-  <si>
-    <t>The target asset allocations for the Company’s domestic pension plans may vary by plan, in part due to plan demographics, funded status and liability duration.</t>
-  </si>
-  <si>
     <t>0001.00268</t>
   </si>
   <si>
-    <t>In general, the Company’s target asset allocations are as follows: global equities approximately 20% to 40% fixed income approximately 50% to 70% and cash, alternative investments and other, approximately zero to 20% at December 31, 2020. Actual asset allocations may vary from the targeted allocations for various reasons, including market conditions and the timing of transactions. The Company maintains numerous international defined benefit pension plans.</t>
+    <t>Investment risk is measured and monitored on an ongoing basis through annual liability measurements, periodic asset/liability studies and quarterly investment portfolio reviews.The expected long-term rate of return for plan assets is based upon many factors including expected asset allocations, historical asset returns, current and expected future market conditions, risk and active management premiums. The target asset allocations for the Company’s domestic pension plans may vary by plan, in part due to plan demographics, funded status and liability duration. In general, the Company’s target asset allocations are as follows: global equities approximately 20% to 40% fixed income approximately 50% to 70% and cash, alternative investments and other, approximately zero to 20% at December 31, 2020.</t>
   </si>
   <si>
     <t>0001.00269</t>
   </si>
   <si>
+    <t>Actual asset allocations may vary from the targeted allocations for various reasons, including market conditions and the timing of transactions.</t>
+  </si>
+  <si>
+    <t>0001.00270</t>
+  </si>
+  <si>
+    <t>The Company maintains numerous international defined benefit pension plans.</t>
+  </si>
+  <si>
+    <t>0001.00271</t>
+  </si>
+  <si>
     <t>The asset allocations for the international investment may vary by plan and jurisdiction and are primarily based upon the plan structure and plan participant profile.</t>
   </si>
   <si>
-    <t>0001.00270</t>
+    <t>0001.00272</t>
   </si>
   <si>
     <t>At December 31, 2020, the domestic plan assets were allocated as follows: Equities: approximately 24% and Other Investments (alternative investments, fixed-income securities, cash and other): approximately 76%.</t>
   </si>
   <si>
-    <t>0001.00271</t>
-  </si>
-  <si>
-    <t>Actual asset allocations may vary from the targeted allocations for various reasons, including market conditions and the timing of transactions.</t>
-  </si>
-  <si>
-    <t>0001.00272</t>
+    <t>0001.00273</t>
+  </si>
+  <si>
+    <t>0001.00274</t>
   </si>
   <si>
     <t>For 2020, 2019 and 2018, the actual return (loss) on plan assets for the Company’s U.S. pension plan assets was approximately $178 million, $213 million and $(71) million, respectively, versus an expected return on plan assets of approximately $59 million, $59 million and $67 million, respectively.</t>
   </si>
   <si>
-    <t>0001.00273</t>
-  </si>
-  <si>
-    <t>The actual amount of future contributions will depend, in part, on long-term actual return on assets and future discount rates.</t>
-  </si>
-  <si>
-    <t>0001.00274</t>
-  </si>
-  <si>
-    <t>Pension contributions for all the Company’s pension plans for 2021 are estimated to be approximately $22 million, as compared to the 2020 contributions of approximately $25 million.The weighted average expected return on plan assets assumption for 2020 was approximately 4.1% for the Company’s pension plans.</t>
-  </si>
-  <si>
     <t>0001.00275</t>
   </si>
   <si>
-    <t>The weighted average discount rate at the 2020 measurement date used to measure the pension and postretirement benefit obligations was approximately 1.9% and 1.8%, respectively. A 25 basis points decrease in the discount rate at the 2020 measurement date would increase the pension plans’ projected benefit obligation by approximately $64 million.The healthcare cost trend rates used in valuing the Company’s postretirement benefit obligation are established based upon actual healthcare cost trends and consultation with actuaries and benefit providers.</t>
+    <t>The actual amount of future contributions will depend, in part, on long-term actual return on assets and future discount rates. Pension contributions for all the Company’s pension plans for 2021 are estimated to be approximately $22 million, as compared to the 2020 contributions of approximately $25 million.The weighted average expected return on plan assets assumption for 2020 was approximately 4.1% for the Company’s pension plans.</t>
   </si>
   <si>
     <t>0001.00276</t>
   </si>
   <si>
-    <t>At the 2020 measurement date, the current weighted average healthcare cost trend rate assumption was approximately 6.7%.</t>
+    <t>The weighted average discount rate at the 2020 measurement date used to measure the pension and postretirement benefit obligations was approximately 1.9% and 1.8%, respectively.</t>
   </si>
   <si>
     <t>0001.00277</t>
   </si>
   <si>
-    <t>The current healthcare cost trend rate is assumed to gradually decrease to an ultimate healthcare cost trend rate of 4.5%. See Footnote 11 of the Notes to Consolidated Financial Statements for further information.Recent Accounting PronouncementsA summary of recent accounting pronouncements is included in Footnote 1 of the Notes to Consolidated Financial Statements.47International OperationsFor 2020, 2019 and 2018, the Company’s non-U.S. businesses accounted for approximately 33% of net sales (see Footnote 17 of the Notes to Consolidated Financial Statements).Forward-Looking StatementsForward-looking statements in this Report are made in reliance upon the safe harbor provisions of the Private Securities Litigation Reform Act of 1995. These statements generally can be identified by the use of words such as “intend,” “anticipate,” “believe,” “estimate,” “project,” “target,” “plan,” “expect,” setting up, beginning to, “will,” “should,” “would,” resume, are confident that, remain optimistic that or similar statements.</t>
+    <t>A 25 basis points decrease in the discount rate at the 2020 measurement date would increase the pension plans’ projected benefit obligation by approximately $64 million.The healthcare cost trend rates used in valuing the Company’s postretirement benefit obligation are established based upon actual healthcare cost trends and consultation with actuaries and benefit providers. At the 2020 measurement date, the current weighted average healthcare cost trend rate assumption was approximately 6.7%. The current healthcare cost trend rate is assumed to gradually decrease to an ultimate healthcare cost trend rate of 4.5%.</t>
   </si>
   <si>
     <t>0001.00278</t>
   </si>
   <si>
+    <t>See Footnote 11 of the Notes to Consolidated Financial Statements for further information.Recent Accounting PronouncementsA summary of recent accounting pronouncements is included in Footnote 1 of the Notes to Consolidated Financial Statements.47International OperationsFor 2020, 2019 and 2018, the Company’s non-U.S. businesses accounted for approximately 33% of net sales (see Footnote 17 of the Notes to Consolidated Financial Statements).Forward-Looking StatementsForward-looking statements in this Report are made in reliance upon the safe harbor provisions of the Private Securities Litigation Reform Act of 1995.</t>
+  </si>
+  <si>
+    <t>0001.00279</t>
+  </si>
+  <si>
+    <t>These statements generally can be identified by the use of words such as “intend,” “anticipate,” “believe,” “estimate,” “project,” “target,” “plan,” “expect,” setting up, beginning to, “will,” “should,” “would,” resume, are confident that, remain optimistic that or similar statements.</t>
+  </si>
+  <si>
+    <t>0001.00280</t>
+  </si>
+  <si>
     <t>The Company cautions that forward-looking statements are not guarantees because there are inherent difficulties in predicting future results.</t>
   </si>
   <si>
-    <t>0001.00279</t>
+    <t>0001.00281</t>
   </si>
   <si>
     <t>Actual results may differ materially from those expressed or implied in the forward-looking statements.</t>
   </si>
   <si>
-    <t>0001.00280</t>
+    <t>0001.00282</t>
   </si>
   <si>
     <t>Important factors that could cause actual results to differ materially from those suggested by the forward-looking statements include, but are not limited to:•the Company's ability to manage the demand, supply and operational challenges with the actual or perceived effects of the COVID-19 pandemic•the Company’s dependence on the strength of retail, commercial and industrial sectors of the economy in various parts of the world•competition with other manufacturers and distributors of consumer products•major retailers’ strong bargaining power and consolidation of the Company’s customers•the Company’s ability to improve productivity, reduce complexity and streamline operations•the Company’s ability to develop innovative new products, to develop, maintain and strengthen end-user brands and to realize the benefits of increased advertising and promotion spend•the Company's ability to successfully remediate its material weakness in internal control over financial reporting and to maintain effective internal control over financial reporting•risks related to the Company’s substantial indebtedness, potential increases in interest rates or changes in the Company’s credit ratings•future events that could adversely affect the value of the Company’s assets and/or stock price and require additional impairment charges•the impact of cost associated with acquisition and divestitures•our ability to effectively execute our turnaround plan•changes in the prices of raw materials and sourced products and the Company's ability to obtain raw materials and sourced products in a timely manner•the impact of governmental investigation, inspections, lawsuits, legislation requests or other actions or other activities by third parties•the risks inherent to the Company’s foreign operations, including currency fluctuations, exchange controls and pricing restrictions•a failure of one of the Company’s key information technology systems, networks, processes or related controls or those of the Company’s services providers•the impact of United States or foreign regulations on the Company’s operations, including the impact of tariffs and environmental remediation costs•the potential inability to attract, retain and motivate key employees•the resolution of tax contingencies resulting in additional tax liabilities•product liability, product recalls or related regulatory actions•the Company’s ability to protect its intellectual property rights and•significant increases in the funding obligations related to the Company’s pension plans.The information contained in this Annual Report on Form 10-K is as of the date indicated.</t>
   </si>
   <si>
-    <t>0001.00281</t>
+    <t>0001.00283</t>
   </si>
   <si>
     <t>The Company assumes no obligation to update any forward-looking statements contained in this Annual Report on Form 10-K as a result of new information or future events or developments.</t>
   </si>
   <si>
-    <t>0001.00282</t>
-  </si>
-  <si>
-    <t>In addition, there can be no assurance that the Company has correctly identified and assessed all of the factors affecting the Company or that the publicly available and other information the Company receives with respect to these factors is complete or correct.48ITEM 7A.</t>
-  </si>
-  <si>
-    <t>0001.00283</t>
-  </si>
-  <si>
-    <t>QUANTITATIVE AND QUALITATIVE DISCLOSURES ABOUT MARKET RISKMarket RiskIn general, business enterprises can be exposed to market risks including fluctuations in interest rates, foreign currency exchange rates and certain commodity prices, and that can affect the cost of operating, investing and financing under those conditions.</t>
-  </si>
-  <si>
     <t>0001.00284</t>
   </si>
   <si>
-    <t>The Company believes it has moderate exposure to these risks. The Company assesses market risk based on changes in interest rates, foreign currency rates and commodity prices utilizing a sensitivity analysis that measures the potential loss in earnings, fair values and cash flows based on hypothetical changes in rates and prices.The Company is exposed to interest rate risk on its variable rate debt and price risk on its fixed rate debt.</t>
+    <t>In addition, there can be no assurance that the Company has correctly identified and assessed all of the factors affecting the Company or that the publicly available and other information the Company receives with respect to these factors is complete or correct.48ITEM 7A. QUANTITATIVE AND QUALITATIVE DISCLOSURES ABOUT MARKET RISKMarket RiskIn general, business enterprises can be exposed to market risks including fluctuations in interest rates, foreign currency exchange rates and certain commodity prices, and that can affect the cost of operating, investing and financing under those conditions.</t>
   </si>
   <si>
     <t>0001.00285</t>
   </si>
   <si>
+    <t>The Company believes it has moderate exposure to these risks.</t>
+  </si>
+  <si>
+    <t>0001.00286</t>
+  </si>
+  <si>
+    <t>The Company assesses market risk based on changes in interest rates, foreign currency rates and commodity prices utilizing a sensitivity analysis that measures the potential loss in earnings, fair values and cash flows based on hypothetical changes in rates and prices.The Company is exposed to interest rate risk on its variable rate debt and price risk on its fixed rate debt.</t>
+  </si>
+  <si>
+    <t>0001.00287</t>
+  </si>
+  <si>
     <t>As such, the Company monitors the interest rate environment and uses interest rate swap agreements to manage its interest rate risk and price risk by balancing its exposure to fixed and variable interest rates while attempting to minimize interest costs.</t>
   </si>
   <si>
-    <t>0001.00286</t>
+    <t>0001.00288</t>
   </si>
   <si>
     <t>At December 31, 2020, approximately $100 million of the Company’s debt carries a variable rate of interest either by nature or through the use of interest rate swaps.</t>
   </si>
   <si>
-    <t>0001.00287</t>
+    <t>0001.00289</t>
   </si>
   <si>
     <t>The remainder of the debt (approximately $5.5 billion) carries a fixed rate of interest.</t>
   </si>
   <si>
-    <t>0001.00288</t>
+    <t>0001.00290</t>
   </si>
   <si>
     <t>Based upon the Company’s debt structure at December 31, 2020, a hypothetical 1% increase in these interest rates would increase interest expense by approximately $1 million and decrease the fair value of debt by approximately $332 million.While the Company transacts business predominantly in U.S. dollars and most of its revenues are collected in U.S. dollars, a substantial portion of the Company’s operating costs are denominated in other currencies, such as the Brazilian Real, British Pound, Canadian dollar, European Euro, Japanese Yen and Mexican Peso.</t>
   </si>
   <si>
-    <t>0001.00289</t>
-  </si>
-  <si>
-    <t>Changes in the relation of these and other currencies to the U.S. dollar will affect Company’s sales and profitability and could result in exchange losses.</t>
-  </si>
-  <si>
-    <t>0001.00290</t>
-  </si>
-  <si>
-    <t>For 2020, approximately 33% of the Company’s sales were denominated in foreign currencies, the most significant of which were: European Euro, approximately 10% Canadian dollar, approximately 4% and British pounds, approximately 4%.</t>
-  </si>
-  <si>
     <t>0001.00291</t>
   </si>
   <si>
-    <t>The primary purpose of the Company’s foreign currency hedging activities is to mitigate the foreign exchange rate exposure on the cash flows related to forecasted inventory purchases and sales. A hypothetical 10% change in foreign currency exchange rates would not have a material effect on foreign currency gains and losses related to the foreign currency derivatives or the net fair value of the Company’s foreign currency derivatives.The Company is exposed to the price risk that the rising cost of commodities has on certain of its raw materials. As such, the Company monitors the commodities markets and from time to time the Company enters into commodity-based derivatives in order to mitigate the impact that the rising price of these commodities has on the cost of certain of the Company’s raw materials.</t>
+    <t>Changes in the relation of these and other currencies to the U.S. dollar will affect Company’s sales and profitability and could result in exchange losses. For 2020, approximately 33% of the Company’s sales were denominated in foreign currencies, the most significant of which were: European Euro, approximately 10% Canadian dollar, approximately 4% and British pounds, approximately 4%.</t>
   </si>
   <si>
     <t>0001.00292</t>
   </si>
   <si>
+    <t>The primary purpose of the Company’s foreign currency hedging activities is to mitigate the foreign exchange rate exposure on the cash flows related to forecasted inventory purchases and sales.</t>
+  </si>
+  <si>
+    <t>0001.00293</t>
+  </si>
+  <si>
+    <t>A hypothetical 10% change in foreign currency exchange rates would not have a material effect on foreign currency gains and losses related to the foreign currency derivatives or the net fair value of the Company’s foreign currency derivatives.The Company is exposed to the price risk that the rising cost of commodities has on certain of its raw materials.</t>
+  </si>
+  <si>
+    <t>0001.00294</t>
+  </si>
+  <si>
+    <t>As such, the Company monitors the commodities markets and from time to time the Company enters into commodity-based derivatives in order to mitigate the impact that the rising price of these commodities has on the cost of certain of the Company’s raw materials.</t>
+  </si>
+  <si>
+    <t>0001.00295</t>
+  </si>
+  <si>
     <t>A hypothetical 10% change in the commodity prices underlying the derivatives would not have a material effect on the related gains and losses included in the Company’s results of operations.</t>
   </si>
   <si>
-    <t>0001.00293</t>
+    <t>0001.00296</t>
   </si>
   <si>
     <t>In this sensitivity analysis, all other assumptions are constant and assumes that a change in one currency’s rate relative to the U.S. dollar would not impact another currency’s rates relative to the U.S. dollar.The Company is exposed to credit loss in the event of non-performance by the counterparties to its derivative financial instruments, all of which are highly rated institutions however, the Company does not anticipate non-performance by such counterparties.</t>
   </si>
   <si>
-    <t>0001.00294</t>
+    <t>0001.00297</t>
   </si>
   <si>
     <t>The Company does not enter into derivative financial instruments for trading purposes.49</t>
@@ -6052,12 +6070,12 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6065,31 +6083,31 @@
         <v>0.7761194029850746</v>
       </c>
       <c r="B3">
-        <v>0.1492537313432836</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="C3">
-        <v>0.07462686567164178</v>
+        <v>0.05970149253731338</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.7975708502024291</v>
+        <v>0.8</v>
       </c>
       <c r="B5">
-        <v>0.1376518218623482</v>
+        <v>0.148</v>
       </c>
       <c r="C5">
-        <v>0.06477732793522267</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6097,21 +6115,21 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="B7">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C7">
-        <v>0.8401360544217688</v>
+        <v>0.8417508417508418</v>
       </c>
       <c r="D7">
-        <v>0.1598639455782313</v>
+        <v>0.1582491582491583</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="B8">
         <v>51</v>
@@ -6124,7 +6142,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M299"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -7680,7 +7698,7 @@
         <v>259</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G82" s="1">
         <v>166</v>
@@ -7695,10 +7713,10 @@
         <v>669</v>
       </c>
       <c r="K82" s="1">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="L82">
-        <v>166</v>
+        <v>379</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>263</v>
@@ -9824,9 +9842,6 @@
       <c r="G178" s="1">
         <v>324</v>
       </c>
-      <c r="H178" s="1">
-        <v>491</v>
-      </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="3" t="s">
@@ -9842,7 +9857,7 @@
         <v>38</v>
       </c>
       <c r="G179" s="1">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -9859,7 +9874,7 @@
         <v>38</v>
       </c>
       <c r="G180" s="1">
-        <v>329</v>
+        <v>127</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -9904,7 +9919,7 @@
         <v>38</v>
       </c>
       <c r="G183" s="1">
-        <v>326</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -9921,10 +9936,10 @@
         <v>38</v>
       </c>
       <c r="G184" s="1">
-        <v>334</v>
+        <v>142</v>
       </c>
       <c r="H184" s="1">
-        <v>735</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10067,7 +10082,7 @@
         <v>38</v>
       </c>
       <c r="G194" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -10168,7 +10183,10 @@
         <v>38</v>
       </c>
       <c r="G201" s="1">
-        <v>243</v>
+        <v>331</v>
+      </c>
+      <c r="H201" s="1">
+        <v>575</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -10290,7 +10308,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:7">
       <c r="A209" s="3" t="s">
         <v>35</v>
       </c>
@@ -10304,7 +10322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:7">
       <c r="A210" s="3" t="s">
         <v>35</v>
       </c>
@@ -10318,7 +10336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:7">
       <c r="A211" s="3" t="s">
         <v>35</v>
       </c>
@@ -10332,7 +10350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:7">
       <c r="A212" s="3" t="s">
         <v>35</v>
       </c>
@@ -10346,7 +10364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:7">
       <c r="A213" s="3" t="s">
         <v>35</v>
       </c>
@@ -10360,7 +10378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:7">
       <c r="A214" s="3" t="s">
         <v>35</v>
       </c>
@@ -10374,7 +10392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:7">
       <c r="A215" s="3" t="s">
         <v>35</v>
       </c>
@@ -10391,7 +10409,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:7">
       <c r="A216" s="3" t="s">
         <v>35</v>
       </c>
@@ -10408,7 +10426,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:7">
       <c r="A217" s="3" t="s">
         <v>35</v>
       </c>
@@ -10422,7 +10440,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:7">
       <c r="A218" s="3" t="s">
         <v>35</v>
       </c>
@@ -10436,7 +10454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:7">
       <c r="A219" s="3" t="s">
         <v>35</v>
       </c>
@@ -10450,7 +10468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:7">
       <c r="A220" s="3" t="s">
         <v>35</v>
       </c>
@@ -10464,7 +10482,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:7">
       <c r="A221" s="3" t="s">
         <v>35</v>
       </c>
@@ -10478,7 +10496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:7">
       <c r="A222" s="3" t="s">
         <v>35</v>
       </c>
@@ -10494,11 +10512,8 @@
       <c r="G222" s="1">
         <v>679</v>
       </c>
-      <c r="H222" s="1">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="3" t="s">
         <v>35</v>
       </c>
@@ -10512,7 +10527,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:7">
       <c r="A224" s="3" t="s">
         <v>35</v>
       </c>
@@ -10540,7 +10555,7 @@
         <v>38</v>
       </c>
       <c r="G225" s="1">
-        <v>138</v>
+        <v>209</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -10557,7 +10572,7 @@
         <v>38</v>
       </c>
       <c r="G226" s="1">
-        <v>592</v>
+        <v>119</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10672,10 +10687,10 @@
         <v>38</v>
       </c>
       <c r="G234" s="1">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="H234" s="1">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10734,7 +10749,7 @@
         <v>38</v>
       </c>
       <c r="G238" s="1">
-        <v>155</v>
+        <v>202</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10747,29 +10762,8 @@
       <c r="C239" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="D239" s="1">
-        <v>1</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="I239" s="1">
-        <v>74</v>
-      </c>
-      <c r="J239" s="1">
-        <v>275</v>
-      </c>
-      <c r="K239" s="1">
-        <v>0</v>
-      </c>
-      <c r="L239">
-        <v>66</v>
-      </c>
-      <c r="M239" s="2" t="s">
-        <v>713</v>
+      <c r="D239" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10777,13 +10771,34 @@
         <v>35</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D240" s="1">
+        <v>1</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="F240" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>38</v>
+      <c r="I240" s="1">
+        <v>74</v>
+      </c>
+      <c r="J240" s="1">
+        <v>275</v>
+      </c>
+      <c r="K240" s="1">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>66</v>
+      </c>
+      <c r="M240" s="2" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -10870,7 +10885,7 @@
         <v>38</v>
       </c>
       <c r="G246" s="1">
-        <v>201</v>
+        <v>253</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -10901,7 +10916,7 @@
         <v>38</v>
       </c>
       <c r="G248" s="1">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -10946,10 +10961,10 @@
         <v>38</v>
       </c>
       <c r="G251" s="1">
-        <v>214</v>
+        <v>773</v>
       </c>
       <c r="H251" s="1">
-        <v>470</v>
+        <v>988</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -10966,7 +10981,7 @@
         <v>38</v>
       </c>
       <c r="G252" s="1">
-        <v>112</v>
+        <v>150</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -10983,10 +10998,10 @@
         <v>38</v>
       </c>
       <c r="G253" s="1">
-        <v>612</v>
+        <v>421</v>
       </c>
       <c r="H253" s="1">
-        <v>837</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -11003,10 +11018,7 @@
         <v>38</v>
       </c>
       <c r="G254" s="1">
-        <v>280</v>
-      </c>
-      <c r="H254" s="1">
-        <v>799</v>
+        <v>334</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -11023,7 +11035,7 @@
         <v>38</v>
       </c>
       <c r="G255" s="1">
-        <v>128</v>
+        <v>518</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -11124,10 +11136,10 @@
         <v>38</v>
       </c>
       <c r="G262" s="1">
-        <v>318</v>
+        <v>124</v>
       </c>
       <c r="H262" s="1">
-        <v>781</v>
+        <v>272</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -11158,7 +11170,7 @@
         <v>38</v>
       </c>
       <c r="G264" s="1">
-        <v>182</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -11203,10 +11215,10 @@
         <v>38</v>
       </c>
       <c r="G267" s="1">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="H267" s="1">
-        <v>266</v>
+        <v>554</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -11223,10 +11235,10 @@
         <v>38</v>
       </c>
       <c r="G268" s="1">
-        <v>310</v>
+        <v>84</v>
       </c>
       <c r="H268" s="1">
-        <v>420</v>
+        <v>296</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -11299,10 +11311,10 @@
         <v>38</v>
       </c>
       <c r="G273" s="1">
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="H273" s="1">
-        <v>383</v>
+        <v>565</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -11369,7 +11381,7 @@
         <v>792</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>38</v>
@@ -11380,10 +11392,10 @@
         <v>35</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>795</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>38</v>
@@ -11394,16 +11406,16 @@
         <v>35</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C280" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>797</v>
-      </c>
       <c r="D280" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G280" s="1">
-        <v>177</v>
+        <v>127</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -11411,10 +11423,10 @@
         <v>35</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>38</v>
@@ -11425,19 +11437,19 @@
         <v>35</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>801</v>
-      </c>
       <c r="D282" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G282" s="1">
-        <v>122</v>
+        <v>376</v>
       </c>
       <c r="H282" s="1">
-        <v>742</v>
+        <v>497</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -11445,10 +11457,10 @@
         <v>35</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>803</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>38</v>
@@ -11459,10 +11471,10 @@
         <v>35</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>38</v>
@@ -11473,10 +11485,10 @@
         <v>35</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>38</v>
@@ -11487,10 +11499,10 @@
         <v>35</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>808</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>809</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>38</v>
@@ -11501,10 +11513,10 @@
         <v>35</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>810</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>811</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>38</v>
@@ -11515,180 +11527,219 @@
         <v>35</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="D288" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B289" s="1" t="s">
+      <c r="C289" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="D289" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G289" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G289" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="A290" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="D290" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="D291" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B292" s="1" t="s">
+      <c r="C292" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="D292" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="A293" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B293" s="1" t="s">
+      <c r="C293" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="D293" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="A294" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="D294" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="D294" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B295" s="1" t="s">
+      <c r="C295" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="D295" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="D295" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="A296" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="D296" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G296" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G296" s="1">
-        <v>193</v>
-      </c>
-      <c r="H296" s="1">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="D297" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="D297" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="D298" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D298" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="A299" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="D299" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="C300" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="D302" s="1" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K300"/>
+  <autoFilter ref="A1:K303"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
@@ -11988,6 +12039,9 @@
     <hyperlink ref="A297" r:id="rId296"/>
     <hyperlink ref="A298" r:id="rId297"/>
     <hyperlink ref="A299" r:id="rId298"/>
+    <hyperlink ref="A300" r:id="rId299"/>
+    <hyperlink ref="A301" r:id="rId300"/>
+    <hyperlink ref="A302" r:id="rId301"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12095,7 +12149,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -12443,369 +12497,363 @@
         <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>409</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -12813,22 +12861,28 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>114</v>
+        <v>416</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>452</v>
+        <v>417</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -12836,22 +12890,22 @@
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -12859,19 +12913,22 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -12879,22 +12936,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -12902,19 +12956,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -12922,22 +12979,19 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -12945,22 +12999,22 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>495</v>
+        <v>114</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -12968,25 +13022,22 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>493</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>114</v>
+        <v>495</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -12994,19 +13045,25 @@
         <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>507</v>
+        <v>499</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>508</v>
+        <v>501</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -13014,22 +13071,19 @@
         <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -13037,22 +13091,22 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>535</v>
+        <v>519</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>536</v>
+        <v>114</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -13060,22 +13114,22 @@
         <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>114</v>
+        <v>536</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>546</v>
+        <v>537</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -13083,22 +13137,22 @@
         <v>35</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>631</v>
+        <v>543</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>632</v>
+        <v>544</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>633</v>
+        <v>545</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>634</v>
+        <v>520</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>635</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -13106,23 +13160,46 @@
         <v>35</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>710</v>
+        <v>631</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>711</v>
+        <v>632</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>712</v>
+        <v>633</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>634</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>713</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>715</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I47"/>
+  <autoFilter ref="A1:I48"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
@@ -13169,6 +13246,7 @@
     <hyperlink ref="A44" r:id="rId43"/>
     <hyperlink ref="A45" r:id="rId44"/>
     <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
